--- a/assets/excel/Daftar Tahun Anggaran.xlsx
+++ b/assets/excel/Daftar Tahun Anggaran.xlsx
@@ -371,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,57 +432,6 @@
         <v>1000000000</v>
       </c>
       <c r="F5">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>2021</v>
-      </c>
-      <c r="C6">
-        <v>1000000000</v>
-      </c>
-      <c r="D6">
-        <v>1000000000</v>
-      </c>
-      <c r="F6">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2022</v>
-      </c>
-      <c r="C7">
-        <v>1000000000</v>
-      </c>
-      <c r="D7">
-        <v>1000000000</v>
-      </c>
-      <c r="F7">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2023</v>
-      </c>
-      <c r="C8">
-        <v>1000000000</v>
-      </c>
-      <c r="D8">
-        <v>1000000000</v>
-      </c>
-      <c r="F8">
         <v>1000000000</v>
       </c>
     </row>

--- a/assets/excel/Daftar Tahun Anggaran.xlsx
+++ b/assets/excel/Daftar Tahun Anggaran.xlsx
@@ -371,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,23 +415,6 @@
         <v>1000000000</v>
       </c>
       <c r="F4">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2020</v>
-      </c>
-      <c r="C5">
-        <v>1000000000</v>
-      </c>
-      <c r="D5">
-        <v>1000000000</v>
-      </c>
-      <c r="F5">
         <v>1000000000</v>
       </c>
     </row>

--- a/assets/excel/Daftar Tahun Anggaran.xlsx
+++ b/assets/excel/Daftar Tahun Anggaran.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Daftar Tahun Anggaran</t>
   </si>
@@ -33,6 +33,15 @@
   </si>
   <si>
     <t>Pagu Dalam Kota</t>
+  </si>
+  <si>
+    <t>7000000000</t>
+  </si>
+  <si>
+    <t>15000000000</t>
+  </si>
+  <si>
+    <t>10000000000</t>
   </si>
 </sst>
 </file>
@@ -406,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2019</v>
-      </c>
-      <c r="C4">
-        <v>1000000000</v>
-      </c>
-      <c r="D4">
-        <v>1000000000</v>
-      </c>
-      <c r="F4">
-        <v>1000000000</v>
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
